--- a/transaction.xlsx
+++ b/transaction.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work-place\flutter apps\projects\sharp\BisleriumCafeBackend\BisleriumCafeBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653FB43B-BAD5-4892-8127-4D7A1905C803}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AF54F9-DB4F-4D11-A707-3FDE0097E2CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Id</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>MemberId</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -356,10 +359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A2" sqref="A2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -379,6 +382,9 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
@@ -396,7 +402,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="0">
         <v>3</v>
@@ -407,9 +413,196 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0">
+        <v>5</v>
+      </c>
+      <c r="C6" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0">
+        <v>6</v>
+      </c>
+      <c r="C7" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0">
+        <v>7</v>
+      </c>
+      <c r="C8" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0">
+        <v>8</v>
+      </c>
+      <c r="C9" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0">
+        <v>9</v>
+      </c>
+      <c r="C10" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0">
+        <v>10</v>
+      </c>
+      <c r="C11" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0">
+        <v>11</v>
+      </c>
+      <c r="C12" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0">
+        <v>12</v>
+      </c>
+      <c r="C13" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0">
+        <v>13</v>
+      </c>
+      <c r="C14" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>14</v>
+      </c>
+      <c r="B15" s="0">
+        <v>14</v>
+      </c>
+      <c r="C15" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>15</v>
+      </c>
+      <c r="B16" s="0">
+        <v>15</v>
+      </c>
+      <c r="C16" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>16</v>
+      </c>
+      <c r="B17" s="0">
+        <v>16</v>
+      </c>
+      <c r="C17" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>17</v>
+      </c>
+      <c r="B18" s="0">
+        <v>17</v>
+      </c>
+      <c r="C18" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>18</v>
+      </c>
+      <c r="B19" s="0">
+        <v>18</v>
+      </c>
+      <c r="C19" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>19</v>
+      </c>
+      <c r="B20" s="0">
+        <v>19</v>
+      </c>
+      <c r="C20" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>20</v>
+      </c>
+      <c r="B21" s="0">
+        <v>20</v>
+      </c>
+      <c r="C21" s="0">
         <v>3</v>
       </c>
     </row>
